--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -469,28 +469,28 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="52" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="23" customWidth="1" min="7" max="7"/>
-    <col width="23" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
     <col width="23" customWidth="1" min="14" max="14"/>
-    <col width="23" customWidth="1" min="15" max="15"/>
-    <col width="23" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="22" customWidth="1" min="18" max="18"/>
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="23" customWidth="1" min="20" max="20"/>
     <col width="23" customWidth="1" min="21" max="21"/>
-    <col width="23" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="22" customWidth="1" min="22" max="22"/>
+    <col width="22" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -613,71 +613,71 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>38.77897392413754</v>
+        <v>156.4400408507819</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>38.77961573419436</v>
+        <v>162.8801746867148</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>39.20471098784499</v>
+        <v>177.9909031314472</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>39.47122147145365</v>
+        <v>159.4253126320178</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>42.90976774396189</v>
+        <v>180.5983985593907</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44.40212385580292</v>
+        <v>178.2419699036843</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>38.65774416037949</v>
+        <v>172.5388728756475</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44.31416997118968</v>
+        <v>171.7438928443887</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>40.62924275027904</v>
+        <v>166.1405930872782</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>43.40895239673444</v>
+        <v>198.214521192764</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>41.6505897135721</v>
+        <v>164.8853571167791</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>41.78098935525433</v>
+        <v>165.448394460587</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>43.59554996139065</v>
+        <v>169.5992390856428</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>40.16609982887386</v>
+        <v>159.6655566793237</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>40.55157376942803</v>
+        <v>172.5167671045948</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>42.53437147031357</v>
+        <v>168.584550407421</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>42.29961700256249</v>
+        <v>165.3924435185351</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>41.78348627404912</v>
+        <v>178.8394570698092</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>40.88884807025287</v>
+        <v>168.0651568358662</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>41.27002736671367</v>
+        <v>189.5236546922185</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>41.35388379041943</v>
+        <v>171.3367628367446</v>
       </c>
       <c r="W2" s="5" t="inlineStr">
         <is>
-          <t>[40.4952, 42.2126]</t>
+          <t>[166.5091, 176.1644]</t>
         </is>
       </c>
     </row>
@@ -763,16 +763,16 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -805,29 +805,29 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.01111425339366516</v>
+        <v>0.008975226537618255</v>
       </c>
       <c r="W4" s="5" t="inlineStr">
         <is>
-          <t>[-0.0002, 0.0225]</t>
+          <t>[0.0021, 0.0159]</t>
         </is>
       </c>
     </row>
@@ -913,71 +913,71 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.01295003071067643</v>
+        <v>0.04322520001505111</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.01057070557354728</v>
+        <v>0.03893501379314009</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.01099900044701423</v>
+        <v>0.04386385706237984</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.01130198018532728</v>
+        <v>0.04618790549801203</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.01247143692626521</v>
+        <v>0.03864573284466733</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.01148079129741572</v>
+        <v>0.04672448089997135</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01011680106247298</v>
+        <v>0.05424148667263878</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.0141502971103809</v>
+        <v>0.04582579204317581</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009727694297665424</v>
+        <v>0.04668070083527099</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.01137631130225577</v>
+        <v>0.04811110145473959</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.01027858635849991</v>
+        <v>0.04115598577609533</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.01165000571741982</v>
+        <v>0.03924125492176123</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0.009057171563944429</v>
+        <v>0.04043935463502644</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.01130865253879927</v>
+        <v>0.04269515853969649</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.0140364656906708</v>
+        <v>0.03671686077728151</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.013621162392557</v>
+        <v>0.04465197692698513</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.01272006928186823</v>
+        <v>0.03668603335782564</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.009838507175313935</v>
+        <v>0.04206368929005472</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.01146007211596621</v>
+        <v>0.04135253060911092</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009005529947576281</v>
+        <v>0.03344297327677153</v>
       </c>
       <c r="V6" s="5" t="n">
-        <v>0.01140606358478185</v>
+        <v>0.04254435446148279</v>
       </c>
       <c r="W6" s="5" t="inlineStr">
         <is>
-          <t>[0.0107, 0.0121]</t>
+          <t>[0.0403, 0.0448]</t>
         </is>
       </c>
     </row>
@@ -988,71 +988,71 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.4542398341133612</v>
+        <v>0.7598530003786591</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.4742303933389773</v>
+        <v>0.7586933833666277</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4974216292830825</v>
+        <v>0.7516714501356786</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.5065551949726946</v>
+        <v>0.7403528456692743</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.6070633290640232</v>
+        <v>0.7584390610087949</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.5578852736598174</v>
+        <v>0.760903310893604</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.4353581155884004</v>
+        <v>0.7520846591842896</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.6040110676454022</v>
+        <v>0.7607826026100509</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.4840299501976765</v>
+        <v>0.7600826439556227</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.6005482774182007</v>
+        <v>0.7600003131538139</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.5374462232746923</v>
+        <v>0.7621080566540145</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.5206761007441506</v>
+        <v>0.7601661572597305</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.5037460990481282</v>
+        <v>0.7553277709008962</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.4972038834066517</v>
+        <v>0.7614214591642334</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.5210415932394898</v>
+        <v>0.7585658882663681</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.5878283572027603</v>
+        <v>0.7627897638118017</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.5793978170743854</v>
+        <v>0.7600833751862868</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.6221439185333522</v>
+        <v>0.7604119768447979</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.6044113724469384</v>
+        <v>0.7504938650063854</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.5215596449169421</v>
+        <v>0.7530329766027291</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.5358399037584564</v>
+        <v>0.757363228002683</v>
       </c>
       <c r="W7" s="5" t="inlineStr">
         <is>
-          <t>[0.5096, 0.5621]</t>
+          <t>[0.7548, 0.7599]</t>
         </is>
       </c>
     </row>
@@ -1063,71 +1063,71 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.1149948251227506</v>
+        <v>0.2229537910993081</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1244113617123731</v>
+        <v>0.2125377472711569</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.121325188363029</v>
+        <v>0.2078828212813766</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1170814111457778</v>
+        <v>0.2174956960498126</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.1322981785828961</v>
+        <v>0.2144542669952384</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.1301286634561213</v>
+        <v>0.2429410301478545</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.1092448029352127</v>
+        <v>0.2109536268260806</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.141691355221598</v>
+        <v>0.2225007807640723</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1170065462633159</v>
+        <v>0.2151095322422552</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.1264286330414128</v>
+        <v>0.2358054604899328</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.1195558765630459</v>
+        <v>0.2179815493692249</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.1308863320642614</v>
+        <v>0.2139995756174373</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.1296310279566472</v>
+        <v>0.2129408196738302</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.1211454545075051</v>
+        <v>0.2345542047972015</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.1246023961484569</v>
+        <v>0.2051394267740925</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.1373929598595647</v>
+        <v>0.2350233227896421</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.1364244380218206</v>
+        <v>0.2119967685784286</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.1443131817705922</v>
+        <v>0.241700751694738</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.1256080696044969</v>
+        <v>0.2104093797458603</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.114497463657941</v>
+        <v>0.1895893088200611</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>0.125933408299941</v>
+        <v>0.2187984930513802</v>
       </c>
       <c r="W8" s="5" t="inlineStr">
         <is>
-          <t>[0.1215, 0.1304]</t>
+          <t>[0.2125, 0.2251]</t>
         </is>
       </c>
     </row>
@@ -1138,71 +1138,71 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.02114181636029814</v>
+        <v>0.04337393756043353</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.02053922922371255</v>
+        <v>0.04155438798507124</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.02532027851874556</v>
+        <v>0.040437177856485</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0210023897369141</v>
+        <v>0.04023115601484143</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.02542907975665638</v>
+        <v>0.03951274803335644</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.02353541918692752</v>
+        <v>0.04814973140912381</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02062287500520928</v>
+        <v>0.04216002864537124</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.02481293109117088</v>
+        <v>0.04130207623812655</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02200095026740335</v>
+        <v>0.04571623636971465</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.02185209951974659</v>
+        <v>0.05074605931845412</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.02112045504675682</v>
+        <v>0.04487926751187666</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.02273299235635906</v>
+        <v>0.04479075819660725</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.02052557285884937</v>
+        <v>0.03797704492934725</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.02139134656055603</v>
+        <v>0.04517305388276145</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.0223574877755874</v>
+        <v>0.04390328976403488</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.02271297698340046</v>
+        <v>0.04550959573640895</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.02408627134579194</v>
+        <v>0.04051405658306117</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.0238914087016453</v>
+        <v>0.04900545277092651</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0.02312481559211771</v>
+        <v>0.04295881147260123</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0218942075325386</v>
+        <v>0.03512653420100006</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>0.02250473017101935</v>
+        <v>0.04315107022398017</v>
       </c>
       <c r="W9" s="5" t="inlineStr">
         <is>
-          <t>[0.0218, 0.0232]</t>
+          <t>[0.0414, 0.0449]</t>
         </is>
       </c>
     </row>
@@ -1213,71 +1213,71 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0002390876406657409</v>
+        <v>28.80175488399282</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.0002858072605764816</v>
+        <v>29.50799020067796</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0002862707023356455</v>
+        <v>31.12494372489579</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0002459919195612556</v>
+        <v>30.2645647432537</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.0002662438707644698</v>
+        <v>32.13550863946524</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.0003123147570349516</v>
+        <v>31.81542084094361</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.000246880307743166</v>
+        <v>33.11479608745253</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0002835325044786612</v>
+        <v>31.90238579673056</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0002509688781611641</v>
+        <v>30.95704765025094</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.0002864247669727095</v>
+        <v>32.55579815909363</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.0002644978264079897</v>
+        <v>30.4207906632177</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.0002851126383219979</v>
+        <v>31.44195873582123</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.0002464286725213907</v>
+        <v>29.49742485312461</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0002362168816499115</v>
+        <v>31.15568444033478</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.0002623760886616159</v>
+        <v>29.84474283842254</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.0003197358631379208</v>
+        <v>31.23926874845064</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002773730495847758</v>
+        <v>30.56710416488545</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0.000296048659979895</v>
+        <v>31.36779123717573</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>0.0002868899147453088</v>
+        <v>31.00947435702881</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0002518385460224207</v>
+        <v>32.16381111204606</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.0002715020374663736</v>
+        <v>31.04441309386322</v>
       </c>
       <c r="W10" s="5" t="inlineStr">
         <is>
-          <t>[0.0003, 0.0003]</t>
+          <t>[30.5281, 31.5607]</t>
         </is>
       </c>
     </row>
@@ -1288,71 +1288,71 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.0001966818662378368</v>
+        <v>0.2664349335914568</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.00020748615928227</v>
+        <v>0.1398220491040713</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0001679610042329181</v>
+        <v>0.2509161474315345</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.0001888444577268802</v>
+        <v>0.3530716134199406</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.0003173444981474933</v>
+        <v>0.2858996909435643</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.0002923802719757328</v>
+        <v>0.4721368570624657</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0003532772016546362</v>
+        <v>0.2527576108303711</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0001854834299496745</v>
+        <v>0.3530471724102464</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0002299399341257755</v>
+        <v>0.5220063492714847</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.0002308253852530794</v>
+        <v>0.9983811437553266</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.0001565053325950311</v>
+        <v>0.3851291603643333</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.0001766829498112388</v>
+        <v>0.3730882158776722</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.0001338537835063954</v>
+        <v>0.4663605938830828</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.0002828105275096434</v>
+        <v>0.471204247775613</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.0001730998227998789</v>
+        <v>0.5481800286155416</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.0002091311764774679</v>
+        <v>0.6486388676257193</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0003617827300872061</v>
+        <v>0.3431667299828715</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.0002313840320380271</v>
+        <v>0.8194576676676105</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.0003335321243457257</v>
+        <v>0.5955681384003</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0002181916303969652</v>
+        <v>0.5614227849970863</v>
       </c>
       <c r="V11" s="5" t="n">
-        <v>0.0002323599159076938</v>
+        <v>0.4553345001505146</v>
       </c>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0003]</t>
+          <t>[0.3592, 0.5515]</t>
         </is>
       </c>
     </row>
@@ -1363,71 +1363,71 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.0007294804242643949</v>
+        <v>1.317309068136985</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.0005315266250519799</v>
+        <v>0.9292439604135208</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.0004538961812295566</v>
+        <v>1.23553381397016</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.0005686392337358904</v>
+        <v>1.211817905153092</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.0004025879570828623</v>
+        <v>0.8184328888926049</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.0003245483805874539</v>
+        <v>1.007012039308097</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.000489410695121226</v>
+        <v>1.213681768756929</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0005519917298999872</v>
+        <v>0.9596592202945767</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0003808651303496872</v>
+        <v>1.347921000654442</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.0008253545349671734</v>
+        <v>1.455082669917491</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.0005870808433153475</v>
+        <v>1.109528827269507</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.0006186842304445427</v>
+        <v>1.09534436540933</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.0006059775195105378</v>
+        <v>0.7985383269518542</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.0004619292586097785</v>
+        <v>1.111744981145455</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.0005728152006771046</v>
+        <v>1.997313774827765</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.0004770134457186116</v>
+        <v>0.8247776402548588</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0005307624394052709</v>
+        <v>0.7532499198139144</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.0007937622521273699</v>
+        <v>0.7128177461391524</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.0004763119077192574</v>
+        <v>0.9338640040486175</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.000518092415058671</v>
+        <v>0.7019590020191232</v>
       </c>
       <c r="V12" s="5" t="n">
-        <v>0.0005450365202438353</v>
+        <v>1.076741646168874</v>
       </c>
       <c r="W12" s="5" t="inlineStr">
         <is>
-          <t>[0.0005, 0.0006]</t>
+          <t>[0.9314, 1.2221]</t>
         </is>
       </c>
     </row>
@@ -1513,71 +1513,71 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.8339674690676838</v>
+        <v>140.7266660122252</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.5729162118761866</v>
+        <v>158.6214123032807</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.7627463279877845</v>
+        <v>143.4730366726367</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.561470500854487</v>
+        <v>144.6278843696101</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.785724319940559</v>
+        <v>155.2538856683701</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>5.859646964557418</v>
+        <v>166.0240487392801</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>1.67837958114699</v>
+        <v>139.472428909444</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>4.30997475954718</v>
+        <v>151.1432152374439</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1.262318199070851</v>
+        <v>167.6656456094047</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>4.064527752719527</v>
+        <v>147.5416555604835</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.7487128597048</v>
+        <v>154.1520839161331</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>1.993486290953001</v>
+        <v>153.0632545279541</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.696444623601882</v>
+        <v>141.5611989394751</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2.062024805731471</v>
+        <v>133.5705301950874</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.179373457543387</v>
+        <v>153.2243996537457</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.901233397739841</v>
+        <v>156.7271916240398</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.610166191031341</v>
+        <v>124.7731965523919</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>2.290626579457588</v>
+        <v>161.8798122664956</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.380627014391079</v>
+        <v>155.2336423410515</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.9577702802260317</v>
+        <v>142.148959569477</v>
       </c>
       <c r="V14" s="5" t="n">
-        <v>2.275606879357454</v>
+        <v>149.5442074334015</v>
       </c>
       <c r="W14" s="5" t="inlineStr">
         <is>
-          <t>[1.6571, 2.8941]</t>
+          <t>[144.4714, 154.6171]</t>
         </is>
       </c>
     </row>
@@ -1588,71 +1588,71 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.001065143734795784</v>
+        <v>0.001171208918528619</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.0001002191690875046</v>
+        <v>0.0003252368173226063</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>9.675822886039656e-05</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0</v>
+        <v>0.0009262949019561261</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.51663920247817e-05</v>
+        <v>0.001465983470109558</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0</v>
+        <v>0.001545082283346661</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>0.002524330154891135</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0007981234137789764</v>
+        <v>0.002151545246570922</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>6.479036875697532e-07</v>
+        <v>0.001439509224037251</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>9.721264337971331e-05</v>
+        <v>0.0006493435861700468</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.00068777356044644</v>
+        <v>0.002162249677757779</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.0005581696921229056</v>
+        <v>0.0004378256859535017</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>0.0002565396138122998</v>
+        <v>0.000911361458588268</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0.0004379644600970462</v>
+        <v>0.001848835963856842</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0.000556251089784353</v>
+        <v>0.001755641371521777</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.0006823576600567093</v>
+        <v>0.001902263344020504</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.001330045080298071</v>
+        <v>0.001384100628472263</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0.001198473075634782</v>
+        <v>0.001345295586675723</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>6.256746356151243e-05</v>
+        <v>0.0007967557829559491</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.000309070322927596</v>
+        <v>0.0006892115700943119</v>
       </c>
       <c r="V15" s="5" t="n">
-        <v>0.0004082862637748022</v>
+        <v>0.001276441695084512</v>
       </c>
       <c r="W15" s="5" t="inlineStr">
         <is>
-          <t>[0.0002, 0.0006]</t>
+          <t>[0.001, 0.0016]</t>
         </is>
       </c>
     </row>
@@ -1663,71 +1663,71 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.001456850619235755</v>
+        <v>0.002629233685279036</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.0003817332260101046</v>
+        <v>0.002881490979569495</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>0.00341535953627496</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0</v>
+        <v>0.001552889556936283</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.0007544330306462004</v>
+        <v>0.001060455476908127</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0</v>
+        <v>0.00115311304603774</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>3.138081056906432e-05</v>
+        <v>0.007759443775574365</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.001356793343452978</v>
+        <v>0.004608089716573755</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>0.001893137132255202</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>0.002837403891928315</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>0.003187311059162035</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.0005685074092318764</v>
+        <v>0.00106127854041339</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0</v>
+        <v>0.0007111992994245734</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.0001044633819768295</v>
+        <v>0.002403098282222752</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.001152750297403158</v>
+        <v>0.002155586821123478</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.0002353806688405828</v>
+        <v>0.003326417224219869</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>0.00414518992956509</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>0.0005081501146006078</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0</v>
+        <v>0.002330629710537835</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>0.001228240947977947</v>
       </c>
       <c r="V16" s="5" t="n">
-        <v>0.0003021146393683274</v>
+        <v>0.002542385936329242</v>
       </c>
       <c r="W16" s="5" t="inlineStr">
         <is>
-          <t>[0.0001, 0.0005]</t>
+          <t>[0.0018, 0.0033]</t>
         </is>
       </c>
     </row>
@@ -1888,71 +1888,71 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0</v>
+        <v>4.142020903593742</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
+        <v>4.12856402698521</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>19.56229984323386</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0</v>
+        <v>7.374880315001954</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>8.886149783769131</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0</v>
+        <v>19.21720461086993</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>20.46238891012906</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
+        <v>10.50366514508653</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0</v>
+        <v>4.42397070772198</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0</v>
+        <v>35.20106816593026</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>2.926683466569785</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0</v>
+        <v>3.75569664743082</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0</v>
+        <v>8.415711902475177</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0</v>
+        <v>3.819273379008941</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0</v>
+        <v>1.636890579348167</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>5.214750208498308</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0</v>
+        <v>2.894772039550217</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0</v>
+        <v>16.17155206001679</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0</v>
+        <v>4.159440008284347</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0</v>
+        <v>24.70168358553608</v>
       </c>
       <c r="V19" s="5" t="n">
-        <v>0</v>
+        <v>10.37993331445201</v>
       </c>
       <c r="W19" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[6.1016, 14.6582]</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0</v>
+        <v>0.008852123770632719</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
@@ -2047,62 +2047,62 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0</v>
+        <v>0.001331550108741592</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>0.01267919196101575</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0</v>
+        <v>0.002390303250156557</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>0.01274876011866327</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
+        <v>0.05862487313864476</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0</v>
+        <v>0.03489674217092386</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0</v>
+        <v>0.3613924991886192</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0</v>
+        <v>0.06046537807243223</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0</v>
+        <v>0.1070705498989041</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0</v>
+        <v>0.005103884591101367</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0</v>
+        <v>0.1248227406436798</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0</v>
+        <v>0.5399776509905037</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>0.02345780940954288</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0</v>
+        <v>0.008932862941414123</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0</v>
+        <v>0.04074800297703961</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0</v>
+        <v>0.0007256163725060895</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>0</v>
+        <v>0.07021102698022606</v>
       </c>
       <c r="W21" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[0.0056, 0.1348]</t>
         </is>
       </c>
     </row>
@@ -2188,71 +2188,71 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.144487777602616</v>
+        <v>146.5472139065475</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.412670111475528</v>
+        <v>162.9532804785332</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.874325447615034</v>
+        <v>155.7735704701972</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>3.597590085895988</v>
+        <v>148.4014066936894</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.190498488756798</v>
+        <v>169.4702331288168</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>12.04561047282129</v>
+        <v>170.9506515759026</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>3.911059653909367</v>
+        <v>148.1583344466553</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>9.489852681571776</v>
+        <v>158.6830899482599</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>3.120328746418707</v>
+        <v>164.3281911927125</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>8.067096245287111</v>
+        <v>165.954031572653</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>6.133165341619154</v>
+        <v>154.6824853508754</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.800368326040671</v>
+        <v>160.0757146830294</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.741111559004707</v>
+        <v>159.5861240946776</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>5.173023902880344</v>
+        <v>154.3128097297802</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.337241120514416</v>
+        <v>167.6751231062241</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>6.527775144914637</v>
+        <v>167.9028302281166</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>5.909810243844541</v>
+        <v>143.9317683769687</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>4.682882768162467</v>
+        <v>163.9725551557908</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>3.087116305470737</v>
+        <v>162.8082309365723</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>2.291011965989179</v>
+        <v>154.9703144583219</v>
       </c>
       <c r="V23" s="5" t="n">
-        <v>5.126851319489754</v>
+        <v>159.0568979767162</v>
       </c>
       <c r="W23" s="5" t="inlineStr">
         <is>
-          <t>[3.8722, 6.3815]</t>
+          <t>[155.3076, 162.8062]</t>
         </is>
       </c>
     </row>
@@ -2263,71 +2263,71 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.002738941032332016</v>
+        <v>0.002248721123574948</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.0002496809748892849</v>
+        <v>0.000624454689259404</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>0.000187273991342703</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>0.001822219479257953</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.592531561062599e-05</v>
+        <v>0.002822214167055833</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
+        <v>0.00296655798402559</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>0.004885800299789293</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.001757335956944535</v>
+        <v>0.004130966873416171</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1.608588465690422e-06</v>
+        <v>0.002763857710151522</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.0002153633945642879</v>
+        <v>0.00124673968544649</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.001628937380004726</v>
+        <v>0.004151519381294937</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.001344087552938101</v>
+        <v>0.0008406253170307233</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.0006413490345307496</v>
+        <v>0.00175919638118915</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0.001098726171672032</v>
+        <v>0.003549765050605136</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.001362247566818824</v>
+        <v>0.003370831433321811</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.001535304735127596</v>
+        <v>0.003652345620519367</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.003011422823316388</v>
+        <v>0.002657473206666746</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.002606950496849073</v>
+        <v>0.002582967526417389</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.0001399024029946862</v>
+        <v>0.001546264592259524</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0007393044269364421</v>
+        <v>0.001330381583023873</v>
       </c>
       <c r="V24" s="5" t="n">
-        <v>0.0009563543926997528</v>
+        <v>0.002457008804782428</v>
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>[0.0005, 0.0014]</t>
+          <t>[0.0019, 0.0031]</t>
         </is>
       </c>
     </row>
@@ -2338,71 +2338,71 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.01028365142989945</v>
+        <v>0.008124670615454532</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.002748479227272753</v>
+        <v>0.009560707397649937</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>0.01073824832365926</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0</v>
+        <v>0.004582297053254605</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.005076558710890321</v>
+        <v>0.003584638231802121</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0</v>
+        <v>0.003268666902154223</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.0002305528939767991</v>
+        <v>0.02280326334046344</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.008722242922197714</v>
+        <v>0.0149451558375365</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0</v>
+        <v>0.005875253169067869</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0</v>
+        <v>0.008270974907645291</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>0.01038399983075414</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.003974032375213116</v>
+        <v>0.003396091329322846</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0</v>
+        <v>0.002338189477560241</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0.000723208029070358</v>
+        <v>0.007622161952424589</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.007410537626163156</v>
+        <v>0.007320860901928791</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.001460983461769134</v>
+        <v>0.01032336379930304</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>0.01514993273749678</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>0.001537260850892595</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>0</v>
+        <v>0.007593001771887969</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0</v>
+        <v>0.004334968051686872</v>
       </c>
       <c r="V25" s="5" t="n">
-        <v>0.00203151233382264</v>
+        <v>0.008087685324097279</v>
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t>[0.0005, 0.0036]</t>
+          <t>[0.0057, 0.0105]</t>
         </is>
       </c>
     </row>
@@ -2563,71 +2563,71 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>5.083557484899763</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>5.185732744744405</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>24.09729201665303</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0</v>
+        <v>8.6350649429355</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0</v>
+        <v>11.65595937140446</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0</v>
+        <v>21.85508166971818</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>25.79031439865335</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>13.49297912279791</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>5.691972631661218</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0</v>
+        <v>43.71409915954148</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>3.731465045828311</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>4.800816491214627</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0</v>
+        <v>10.54568631921672</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>4.801636801969182</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0</v>
+        <v>2.123533724559781</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>6.303758070008095</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>3.880450920996595</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>19.87152337137528</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>0</v>
+        <v>5.359749577977017</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>31.93198549078387</v>
       </c>
       <c r="V28" s="5" t="n">
-        <v>0</v>
+        <v>12.92763296784694</v>
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[7.6203, 18.2349]</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>0.09512730022172473</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
@@ -2722,62 +2722,62 @@
         <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0</v>
+        <v>0.01474947812759917</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0</v>
+        <v>0.1863064941210477</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0</v>
+        <v>0.03019330421250388</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>0.1731907034988218</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>0.7964133709400797</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>0.4052524897268577</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0</v>
+        <v>4.486251714065618</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>0.8214164568330417</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0</v>
+        <v>1.32915165391743</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0</v>
+        <v>0.08749516441888058</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1.695705155914141</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0</v>
+        <v>6.589557774799367</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>0.3311690740170759</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>0.1312583942411871</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0</v>
+        <v>0.5239028954190807</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>0.01374852074222064</v>
       </c>
       <c r="V30" s="5" t="n">
-        <v>0</v>
+        <v>0.885544497260834</v>
       </c>
       <c r="W30" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[0.0932, 1.6779]</t>
         </is>
       </c>
     </row>
@@ -2788,71 +2788,71 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>27.34404313820552</v>
+        <v>312.2503500302864</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>21.64408696414966</v>
+        <v>341.9728715719038</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>13.74778590881823</v>
+        <v>317.090631788405</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>32.29011326378247</v>
+        <v>313.8290140816491</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>27.77658049011723</v>
+        <v>331.5356995204015</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>57.37099494399695</v>
+        <v>339.5559405853937</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>27.716439371045</v>
+        <v>305.3777373168959</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>32.98134739425802</v>
+        <v>325.8584812957974</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>28.37926969967017</v>
+        <v>355.4137564486293</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>43.48770997378926</v>
+        <v>319.6033243777455</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>33.53962448824456</v>
+        <v>320.8114250342965</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>31.58709281542281</v>
+        <v>330.4180955213773</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>36.75762461508424</v>
+        <v>318.2100252931531</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>36.58195658255025</v>
+        <v>316.3240867263435</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>38.3597977434226</v>
+        <v>334.6325352437677</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>38.39564278855391</v>
+        <v>332.6059186408394</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>30.91774368961222</v>
+        <v>280.611932509488</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>21.39396512124591</v>
+        <v>333.2644688399681</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>28.29173670183906</v>
+        <v>335.2868490999431</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>26.53840857765994</v>
+        <v>307.4124093938751</v>
       </c>
       <c r="V31" s="5" t="n">
-        <v>31.7550982135734</v>
+        <v>323.603277666008</v>
       </c>
       <c r="W31" s="5" t="inlineStr">
         <is>
-          <t>[27.4986, 36.0116]</t>
+          <t>[316.0369, 331.1697]</t>
         </is>
       </c>
     </row>
@@ -2938,71 +2938,71 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.3676152602212142</v>
+        <v>0.7470618068372232</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.05739020919708082</v>
+        <v>0.1827378612916846</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0</v>
+        <v>0.04474949672970752</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0</v>
+        <v>0.231472926877359</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.01811980225784282</v>
+        <v>0.3254718853904706</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0</v>
+        <v>0.1885426906803787</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>0.847324703323352</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.389481871488556</v>
+        <v>0.4537057520254848</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.0004664906550502224</v>
+        <v>0.3568139285860639</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.06999310323339358</v>
+        <v>0.2211716650196536</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.2838002373330824</v>
+        <v>0.6106654089877566</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.2687256302481273</v>
+        <v>0.2385399795475678</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.08305376982474399</v>
+        <v>0.3449601495580907</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0.0980813321580456</v>
+        <v>0.3553335055623847</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.1460492526040156</v>
+        <v>0.3744108261282122</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.2356856406246663</v>
+        <v>0.4666063484768301</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.4115254756524109</v>
+        <v>0.2820894150170545</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0.2112577554883046</v>
+        <v>0.3419462743698318</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0.04504857376428895</v>
+        <v>0.2654981880299463</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.2225306325078691</v>
+        <v>0.329308649739346</v>
       </c>
       <c r="V33" s="5" t="n">
-        <v>0.1454412518629346</v>
+        <v>0.36042057310892</v>
       </c>
       <c r="W33" s="5" t="inlineStr">
         <is>
-          <t>[0.0789, 0.212]</t>
+          <t>[0.2707, 0.4502]</t>
         </is>
       </c>
     </row>
@@ -3013,71 +3013,71 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.4989619549637609</v>
+        <v>0.4648860982067617</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.2748479227272753</v>
+        <v>0.6259491590514585</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>0.3830903613633154</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0</v>
+        <v>0.3152729274125932</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.3657860153235788</v>
+        <v>0.3120188462559099</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0</v>
+        <v>0.2798768749321532</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.02259418360972631</v>
+        <v>0.6269699347478763</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.5084257977641471</v>
+        <v>0.4974499016631171</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0</v>
+        <v>0.3130779033193676</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0</v>
+        <v>0.3297255374396855</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>0.5090559477666829</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.3346853485550128</v>
+        <v>0.2887159185050905</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0</v>
+        <v>0.3211180628761667</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0.07521363502331724</v>
+        <v>0.4313390680369065</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0.4933229306614635</v>
+        <v>0.3292604295875776</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.1642377280469915</v>
+        <v>0.4901538554999547</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0</v>
+        <v>0.7722203152890064</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>0.249873247779135</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>0</v>
+        <v>0.4922210204927069</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0</v>
+        <v>0.3355734439164166</v>
       </c>
       <c r="V34" s="5" t="n">
-        <v>0.1369037758337637</v>
+        <v>0.4183924427070941</v>
       </c>
       <c r="W34" s="5" t="inlineStr">
         <is>
-          <t>[0.0451, 0.2287]</t>
+          <t>[0.3531, 0.4837]</t>
         </is>
       </c>
     </row>
@@ -3238,71 +3238,71 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0</v>
+        <v>34.54367929855778</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0</v>
+        <v>34.01240616237919</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0</v>
+        <v>68.42105912217562</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0</v>
+        <v>42.63426405829102</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0</v>
+        <v>44.42894072658459</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0</v>
+        <v>67.15732009014664</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>56.90467923081508</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>51.69130161350154</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0</v>
+        <v>25.14668839331233</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0</v>
+        <v>92.52789382982462</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>21.7122927835793</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0</v>
+        <v>26.6113982252316</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0</v>
+        <v>42.2407793511336</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>30.74675189580546</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0</v>
+        <v>16.30757694337393</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>23.02427091366582</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>20.88094718234322</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>55.32030351093294</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>0</v>
+        <v>25.57852968728537</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0</v>
+        <v>91.50788616093064</v>
       </c>
       <c r="V37" s="5" t="n">
-        <v>0</v>
+        <v>43.56994845899352</v>
       </c>
       <c r="W37" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[32.9953, 54.1446]</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0</v>
+        <v>4.151666206045206</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0</v>
@@ -3397,62 +3397,62 @@
         <v>0</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0</v>
+        <v>0.6449592449582155</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0</v>
+        <v>8.758142323842321</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0</v>
+        <v>1.721018340112721</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>9.179107285437553</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>14.03849149797816</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0</v>
+        <v>6.874211284297573</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0</v>
+        <v>38.04664687469415</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>8.37240149787462</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0</v>
+        <v>19.58039351017447</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0</v>
+        <v>3.674796905592984</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>21.14559245669756</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0</v>
+        <v>51.50881803091318</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>16.88962277487087</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0</v>
+        <v>3.292177483290175</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>0</v>
+        <v>11.36040464586995</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0</v>
+        <v>0.5224437882043844</v>
       </c>
       <c r="V39" s="5" t="n">
-        <v>0</v>
+        <v>10.9880447075427</v>
       </c>
       <c r="W39" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[4.6802, 17.2959]</t>
         </is>
       </c>
     </row>
@@ -3463,71 +3463,71 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>9</v>
+        <v>315</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>8</v>
+        <v>294</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>21</v>
+        <v>303</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>21</v>
+        <v>292</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="V40" s="5" t="n">
-        <v>16.6</v>
+        <v>300.6</v>
       </c>
       <c r="W40" s="5" t="inlineStr">
         <is>
-          <t>[14.5833, 18.6167]</t>
+          <t>[291.0611, 310.1389]</t>
         </is>
       </c>
     </row>
@@ -3613,31 +3613,31 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>1</v>
@@ -3649,13 +3649,13 @@
         <v>1</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>1</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>1</v>
@@ -3673,11 +3673,11 @@
         <v>1</v>
       </c>
       <c r="V42" s="5" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="W42" s="5" t="inlineStr">
         <is>
-          <t>[0.6963, 1.3037]</t>
+          <t>[1.08, 1.52]</t>
         </is>
       </c>
     </row>
@@ -3691,68 +3691,68 @@
         <v>2</v>
       </c>
       <c r="C43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="T43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" s="5" t="n">
-        <v>0.55</v>
+        <v>2.25</v>
       </c>
       <c r="W43" s="5" t="inlineStr">
         <is>
-          <t>[0.2288, 0.8712]</t>
+          <t>[1.6844, 2.8156]</t>
         </is>
       </c>
     </row>
@@ -3913,71 +3913,71 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="V46" s="5" t="n">
-        <v>0</v>
+        <v>36.3</v>
       </c>
       <c r="W46" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[26.7446, 45.8554]</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0</v>
@@ -4072,62 +4072,62 @@
         <v>0</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="5" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W48" s="5" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[1.1334, 2.5666]</t>
         </is>
       </c>
     </row>

--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,27 +470,32 @@
   <cols>
     <col width="52" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="22" customWidth="1" min="7" max="7"/>
     <col width="22" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
     <col width="23" customWidth="1" min="11" max="11"/>
     <col width="22" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="23" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="22" customWidth="1" min="14" max="14"/>
     <col width="22" customWidth="1" min="15" max="15"/>
     <col width="22" customWidth="1" min="16" max="16"/>
     <col width="22" customWidth="1" min="17" max="17"/>
     <col width="22" customWidth="1" min="18" max="18"/>
     <col width="23" customWidth="1" min="19" max="19"/>
-    <col width="23" customWidth="1" min="20" max="20"/>
-    <col width="23" customWidth="1" min="21" max="21"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col width="22" customWidth="1" min="21" max="21"/>
     <col width="22" customWidth="1" min="22" max="22"/>
     <col width="22" customWidth="1" min="23" max="23"/>
+    <col width="22" customWidth="1" min="24" max="24"/>
+    <col width="22" customWidth="1" min="25" max="25"/>
+    <col width="22" customWidth="1" min="26" max="26"/>
+    <col width="22" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -595,12 +600,37 @@
           <t>Replication20</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>Replication21</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>Replication22</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>Replication23</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>Replication24</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>Replication25</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Point Estimate</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Confidence Interval</t>
         </is>
@@ -613,71 +643,86 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>156.4400408507819</v>
+        <v>61.17819837346383</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>162.8801746867148</v>
+        <v>62.16261810217512</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>177.9909031314472</v>
+        <v>62.1933961925003</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>159.4253126320178</v>
+        <v>64.51118732048967</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>180.5983985593907</v>
+        <v>64.12768271474692</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>178.2419699036843</v>
+        <v>61.30608727332038</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>172.5388728756475</v>
+        <v>60.9281740204524</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>171.7438928443887</v>
+        <v>61.88898051464781</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>166.1405930872782</v>
+        <v>60.14698588860637</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>198.214521192764</v>
+        <v>66.02971284298482</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>164.8853571167791</v>
+        <v>62.25574086644716</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>165.448394460587</v>
+        <v>60.29298297173563</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>169.5992390856428</v>
+        <v>65.23311810042092</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>159.6655566793237</v>
+        <v>62.65547215994944</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>172.5167671045948</v>
+        <v>60.50645247648183</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>168.584550407421</v>
+        <v>63.66753088654514</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>165.3924435185351</v>
+        <v>64.69793166543751</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>178.8394570698092</v>
+        <v>63.02229921000387</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>168.0651568358662</v>
+        <v>62.94617218307668</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>189.5236546922185</v>
-      </c>
-      <c r="V2" s="5" t="n">
-        <v>171.3367628367446</v>
-      </c>
-      <c r="W2" s="5" t="inlineStr">
-        <is>
-          <t>[166.5091, 176.1644]</t>
+        <v>62.84741659499388</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>63.8332553656398</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>62.75724327541927</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>63.88105332896735</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>64.42514950291239</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>65.96476594181524</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>62.93838431092936</v>
+      </c>
+      <c r="AB2" s="5" t="inlineStr">
+        <is>
+          <t>[62.2397, 63.6371]</t>
         </is>
       </c>
     </row>
@@ -747,10 +792,25 @@
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -763,16 +823,16 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.02173913043478261</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -790,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -805,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -820,14 +880,29 @@
         <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>0.008975226537618255</v>
-      </c>
-      <c r="W4" s="5" t="inlineStr">
-        <is>
-          <t>[0.0021, 0.0159]</t>
+        <v>0.02</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>0.003469014390678666</v>
+      </c>
+      <c r="AB4" s="5" t="inlineStr">
+        <is>
+          <t>[0.0001, 0.0068]</t>
         </is>
       </c>
     </row>
@@ -897,10 +972,25 @@
       <c r="U5" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="W5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="5" t="inlineStr">
         <is>
           <t>[100.0, 100.0]</t>
         </is>
@@ -913,71 +1003,86 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.04322520001505111</v>
+        <v>0.05598068551826324</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.03893501379314009</v>
+        <v>0.0468071722555125</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.04386385706237984</v>
+        <v>0.06396196883333904</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.04618790549801203</v>
+        <v>0.04734020417538431</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.03864573284466733</v>
+        <v>0.06157832692599167</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.04672448089997135</v>
+        <v>0.04868926339683829</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05424148667263878</v>
+        <v>0.05041035128526921</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.04582579204317581</v>
+        <v>0.05639417021388692</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04668070083527099</v>
+        <v>0.05848597947534317</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.04811110145473959</v>
+        <v>0.04505644669314006</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.04115598577609533</v>
+        <v>0.05482950964705416</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.03924125492176123</v>
+        <v>0.05887778533262104</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0.04043935463502644</v>
+        <v>0.04710055925421337</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.04269515853969649</v>
+        <v>0.05078154349823054</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.03671686077728151</v>
+        <v>0.04925963567195837</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.04465197692698513</v>
+        <v>0.0490943592658042</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.03668603335782564</v>
+        <v>0.05004031985223441</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.04206368929005472</v>
+        <v>0.05159739072173485</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.04135253060911092</v>
+        <v>0.05447158488895814</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03344297327677153</v>
-      </c>
-      <c r="V6" s="5" t="n">
-        <v>0.04254435446148279</v>
-      </c>
-      <c r="W6" s="5" t="inlineStr">
-        <is>
-          <t>[0.0403, 0.0448]</t>
+        <v>0.06006701346072508</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0.04595929998770341</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0.05127237899788679</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0.05131849198499601</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0.04764719419256751</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0.05922598562532998</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>0.05264990484619945</v>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>[0.0504, 0.0549]</t>
         </is>
       </c>
     </row>
@@ -988,71 +1093,86 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.7598530003786591</v>
+        <v>0.7983499871595162</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.7586933833666277</v>
+        <v>0.7425553306882492</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7516714501356786</v>
+        <v>0.8197971052407316</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.7403528456692743</v>
+        <v>0.7576802907316279</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.7584390610087949</v>
+        <v>0.8126203505115579</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.760903310893604</v>
+        <v>0.7991337011416364</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.7520846591842896</v>
+        <v>0.7701939796832213</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.7607826026100509</v>
+        <v>0.7398310039889763</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.7600826439556227</v>
+        <v>0.7760600081358879</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.7600003131538139</v>
+        <v>0.7659209659265105</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.7621080566540145</v>
+        <v>0.7639350594778592</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.7601661572597305</v>
+        <v>0.7516816281659229</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.7553277709008962</v>
+        <v>0.7785495596654567</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.7614214591642334</v>
+        <v>0.7700130591078115</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.7585658882663681</v>
+        <v>0.7789943627705465</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.7627897638118017</v>
+        <v>0.7429339363509351</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.7600833751862868</v>
+        <v>0.8066757493207192</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.7604119768447979</v>
+        <v>0.7606331370596759</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.7504938650063854</v>
+        <v>0.7433466298088649</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.7530329766027291</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>0.757363228002683</v>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>[0.7548, 0.7599]</t>
+        <v>0.7876785317886666</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0.7415294519061387</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0.8191807716646219</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0.7638525057338055</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0.7443794091121534</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0.7740834776708903</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>0.7723843997124793</v>
+      </c>
+      <c r="AB7" s="5" t="inlineStr">
+        <is>
+          <t>[0.762, 0.7828]</t>
         </is>
       </c>
     </row>
@@ -1063,71 +1183,86 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.2229537910993081</v>
+        <v>0.2126546385859535</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.2125377472711569</v>
+        <v>0.1940737237730727</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2078828212813766</v>
+        <v>0.2269794320567328</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.2174956960498126</v>
+        <v>0.2003756164122532</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.2144542669952384</v>
+        <v>0.2210849868302052</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.2429410301478545</v>
+        <v>0.2084044320806697</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.2109536268260806</v>
+        <v>0.204106505203811</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2225007807640723</v>
+        <v>0.2030004047036282</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.2151095322422552</v>
+        <v>0.2119601504602626</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.2358054604899328</v>
+        <v>0.1991860401647723</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.2179815493692249</v>
+        <v>0.2058847983659629</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.2139995756174373</v>
+        <v>0.2063549207320264</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.2129408196738302</v>
+        <v>0.2021688166370097</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.2345542047972015</v>
+        <v>0.2050485294626033</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.2051394267740925</v>
+        <v>0.2036024040203913</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.2350233227896421</v>
+        <v>0.1980461032898853</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.2119967685784286</v>
+        <v>0.2117774699169901</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.241700751694738</v>
+        <v>0.204567651723182</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.2104093797458603</v>
+        <v>0.2026819153649787</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.1895893088200611</v>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>0.2187984930513802</v>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>[0.2125, 0.2251]</t>
+        <v>0.2168208022806276</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0.1935991460761185</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0.2136979881212594</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0.2010329353890516</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0.19488106790049</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0.2115427348389144</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>0.2061413285756341</v>
+      </c>
+      <c r="AB8" s="5" t="inlineStr">
+        <is>
+          <t>[0.2027, 0.2095]</t>
         </is>
       </c>
     </row>
@@ -1138,71 +1273,86 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.04337393756043353</v>
+        <v>0.02860186680593926</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.04155438798507124</v>
+        <v>0.02714899824046275</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.040437177856485</v>
+        <v>0.03074174742527057</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.04023115601484143</v>
+        <v>0.02845616825888827</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.03951274803335644</v>
+        <v>0.03188030909784507</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.04814973140912381</v>
+        <v>0.02897403527659586</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04216002864537124</v>
+        <v>0.02873917380716306</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04130207623812655</v>
+        <v>0.0273922860310057</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04571623636971465</v>
+        <v>0.02805829096399574</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.05074605931845412</v>
+        <v>0.028449608572532</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.04487926751187666</v>
+        <v>0.02825799528941943</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.04479075819660725</v>
+        <v>0.02889209456371501</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.03797704492934725</v>
+        <v>0.02770211273920394</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.04517305388276145</v>
+        <v>0.02945015962869154</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.04390328976403488</v>
+        <v>0.02832202448156156</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.04550959573640895</v>
+        <v>0.02801425624035449</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.04051405658306117</v>
+        <v>0.0289482232749421</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.04900545277092651</v>
+        <v>0.02755978082701935</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0.04295881147260123</v>
+        <v>0.02771202773653018</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03512653420100006</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0.04315107022398017</v>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>[0.0414, 0.0449]</t>
+        <v>0.03102966929333495</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0.02656084554246397</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0.02812596835171551</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>0.02804759428791834</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>0.02689441336547765</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0.02924933136494247</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>0.02852835925867955</v>
+      </c>
+      <c r="AB9" s="5" t="inlineStr">
+        <is>
+          <t>[0.028, 0.029]</t>
         </is>
       </c>
     </row>
@@ -1213,71 +1363,86 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>28.80175488399282</v>
+        <v>0.685751399565432</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>29.50799020067796</v>
+        <v>0.6382848779947509</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>31.12494372489579</v>
+        <v>0.730863430590481</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30.2645647432537</v>
+        <v>0.6954846439925702</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>32.13550863946524</v>
+        <v>0.7827052962556074</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>31.81542084094361</v>
+        <v>0.6798730821661043</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>33.11479608745253</v>
+        <v>0.6382053148681468</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>31.90238579673056</v>
+        <v>0.6627427864270886</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>30.95704765025094</v>
+        <v>0.6980642157142696</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>32.55579815909363</v>
+        <v>0.6766813832881323</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>30.4207906632177</v>
+        <v>0.692087003325037</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>31.44195873582123</v>
+        <v>0.6415810390256703</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>29.49742485312461</v>
+        <v>0.7042761740453964</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>31.15568444033478</v>
+        <v>0.6945248674191619</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>29.84474283842254</v>
+        <v>0.6633370662935202</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>31.23926874845064</v>
+        <v>0.6820284335065325</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>30.56710416488545</v>
+        <v>0.7078155559660411</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>31.36779123717573</v>
+        <v>0.6927719509362873</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>31.00947435702881</v>
+        <v>0.6744428424547682</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>32.16381111204606</v>
-      </c>
-      <c r="V10" s="5" t="n">
-        <v>31.04441309386322</v>
-      </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>[30.5281, 31.5607]</t>
+        <v>0.730582859154997</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0.670707937407949</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0.7208505867320667</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0.7107590101139355</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0.6748537015540608</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0.7742979793410432</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>0.692942937525562</v>
+      </c>
+      <c r="AB10" s="5" t="inlineStr">
+        <is>
+          <t>[0.6781, 0.7078]</t>
         </is>
       </c>
     </row>
@@ -1288,71 +1453,86 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.2664349335914568</v>
+        <v>0.2549179252557882</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.1398220491040713</v>
+        <v>0.2872833814457243</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2509161474315345</v>
+        <v>0.368083949627905</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.3530716134199406</v>
+        <v>0.2272453500554392</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.2858996909435643</v>
+        <v>0.3519712272776973</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.4721368570624657</v>
+        <v>0.2463389382254209</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.2527576108303711</v>
+        <v>0.3227745609366359</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3530471724102464</v>
+        <v>0.2205750009410618</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.5220063492714847</v>
+        <v>0.2001786998886665</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.9983811437553266</v>
+        <v>0.3990992606012441</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.3851291603643333</v>
+        <v>0.278665785485896</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.3730882158776722</v>
+        <v>0.3878999139171196</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.4663605938830828</v>
+        <v>0.2225244954514177</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.471204247775613</v>
+        <v>0.3558434983731859</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.5481800286155416</v>
+        <v>0.2005625060379077</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.6486388676257193</v>
+        <v>0.2801433856254522</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.3431667299828715</v>
+        <v>0.3483011592597022</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.8194576676676105</v>
+        <v>0.2165555358048351</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.5955681384003</v>
+        <v>0.2543899887189367</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.5614227849970863</v>
-      </c>
-      <c r="V11" s="5" t="n">
-        <v>0.4553345001505146</v>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t>[0.3592, 0.5515]</t>
+        <v>0.3129495167185223</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0.239855874341769</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0.258189653579181</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0.189318486727784</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0.337601295429832</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0.3312769917729118</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>0.2837018552600015</v>
+      </c>
+      <c r="AB11" s="5" t="inlineStr">
+        <is>
+          <t>[0.2575, 0.3099]</t>
         </is>
       </c>
     </row>
@@ -1363,71 +1543,86 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.317309068136985</v>
+        <v>0.2484259974402092</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.9292439604135208</v>
+        <v>0.3038732068588807</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.23553381397016</v>
+        <v>0.4994547595587684</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.211817905153092</v>
+        <v>0.3922533814502445</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.8184328888926049</v>
+        <v>0.4040663880046345</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.007012039308097</v>
+        <v>0.3278036760157529</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1.213681768756929</v>
+        <v>0.3769845768252718</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.9596592202945767</v>
+        <v>0.3602481644071211</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1.347921000654442</v>
+        <v>0.2981516725967311</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.455082669917491</v>
+        <v>0.3943958798783343</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.109528827269507</v>
+        <v>0.3307522177544721</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>1.09534436540933</v>
+        <v>0.4535733034456862</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.7985383269518542</v>
+        <v>0.5145160251487042</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1.111744981145455</v>
+        <v>0.3290233766726065</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.997313774827765</v>
+        <v>0.322847039745647</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.8247776402548588</v>
+        <v>0.3624593241396476</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.7532499198139144</v>
+        <v>0.5772850636830416</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.7128177461391524</v>
+        <v>0.4189790585867684</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.9338640040486175</v>
+        <v>0.4653104682700791</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.7019590020191232</v>
-      </c>
-      <c r="V12" s="5" t="n">
-        <v>1.076741646168874</v>
-      </c>
-      <c r="W12" s="5" t="inlineStr">
-        <is>
-          <t>[0.9314, 1.2221]</t>
+        <v>0.4244573477686762</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0.3302883392159168</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0.3959738836147998</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>0.3676080679977888</v>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>0.2742631297847841</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>0.3690858522166752</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>0.3816832080432497</v>
+      </c>
+      <c r="AB12" s="5" t="inlineStr">
+        <is>
+          <t>[0.3497, 0.4137]</t>
         </is>
       </c>
     </row>
@@ -1497,10 +1692,25 @@
       <c r="U13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="5" t="inlineStr">
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -1513,71 +1723,86 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>140.7266660122252</v>
+        <v>0.6594537396717146</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>158.6214123032807</v>
+        <v>0.03195818602775673</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>143.4730366726367</v>
+        <v>0.5463961617244606</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>144.6278843696101</v>
+        <v>0.1786915143302494</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>155.2538856683701</v>
+        <v>0.1517865381003927</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>166.0240487392801</v>
+        <v>0.1148341201994928</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>139.472428909444</v>
+        <v>0.2015071484810139</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>151.1432152374439</v>
+        <v>0.1612484126908821</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>167.6656456094047</v>
+        <v>0.2020435660656398</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>147.5416555604835</v>
+        <v>0.342990048756238</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>154.1520839161331</v>
+        <v>0.2917312252972467</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>153.0632545279541</v>
+        <v>0.02380515800937664</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>141.5611989394751</v>
+        <v>0.2644444007356338</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>133.5705301950874</v>
+        <v>0.07738997264516792</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>153.2243996537457</v>
+        <v>0.2182130858357738</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>156.7271916240398</v>
+        <v>0.06083712167144489</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>124.7731965523919</v>
+        <v>0.4882841683781101</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>161.8798122664956</v>
+        <v>0.1818493100440438</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>155.2336423410515</v>
+        <v>0.08327946750830965</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>142.148959569477</v>
-      </c>
-      <c r="V14" s="5" t="n">
-        <v>149.5442074334015</v>
-      </c>
-      <c r="W14" s="5" t="inlineStr">
-        <is>
-          <t>[144.4714, 154.6171]</t>
+        <v>0.2873542035292586</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0.3098749482886494</v>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>0.3319108081311232</v>
+      </c>
+      <c r="X14" s="2" t="n">
+        <v>0.0277853443794501</v>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>0.03734668149208669</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>0.07504700400772098</v>
+      </c>
+      <c r="AA14" s="5" t="n">
+        <v>0.2140024934400494</v>
+      </c>
+      <c r="AB14" s="5" t="inlineStr">
+        <is>
+          <t>[0.145, 0.283]</t>
         </is>
       </c>
     </row>
@@ -1588,71 +1813,86 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.001171208918528619</v>
+        <v>0.006089425146428873</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.0003252368173226063</v>
+        <v>0.002702516393498773</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>9.675822886039656e-05</v>
+        <v>0.005447329965808726</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.0009262949019561261</v>
+        <v>0.003734300541142252</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.001465983470109558</v>
+        <v>0.007149279180707548</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.001545082283346661</v>
+        <v>0.003067297241918619</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.002524330154891135</v>
+        <v>0.005281260865076579</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.002151545246570922</v>
+        <v>0.004225440212323779</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.001439509224037251</v>
+        <v>0.003912104726269858</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.0006493435861700468</v>
+        <v>0.0009218135380421168</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.002162249677757779</v>
+        <v>0.007181461613246033</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.0004378256859535017</v>
+        <v>0.002956946689875534</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>0.000911361458588268</v>
+        <v>0.003086110371236946</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0.001848835963856842</v>
+        <v>0.002859457168684015</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0.001755641371521777</v>
+        <v>0.005724153746313133</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.001902263344020504</v>
+        <v>0.004154586468016832</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.001384100628472263</v>
+        <v>0.005141822136599286</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0.001345295586675723</v>
+        <v>0.001863128436374141</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>0.0007967557829559491</v>
+        <v>0.006117981223205281</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0006892115700943119</v>
-      </c>
-      <c r="V15" s="5" t="n">
-        <v>0.001276441695084512</v>
-      </c>
-      <c r="W15" s="5" t="inlineStr">
-        <is>
-          <t>[0.001, 0.0016]</t>
+        <v>0.004924958335646659</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0.002670065388710095</v>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>0.003033980668126901</v>
+      </c>
+      <c r="X15" s="2" t="n">
+        <v>0.002458778119999045</v>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>0.006644243780679412</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>0.006710830863952638</v>
+      </c>
+      <c r="AA15" s="5" t="n">
+        <v>0.004322370912875323</v>
+      </c>
+      <c r="AB15" s="5" t="inlineStr">
+        <is>
+          <t>[0.0036, 0.005]</t>
         </is>
       </c>
     </row>
@@ -1663,71 +1903,86 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.002629233685279036</v>
+        <v>0.006801776203130006</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.002881490979569495</v>
+        <v>0.002649377428250431</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.00341535953627496</v>
+        <v>0.003055880708571427</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.001552889556936283</v>
+        <v>0.003096017951815592</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.001060455476908127</v>
+        <v>0.006422902937304695</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.00115311304603774</v>
+        <v>0.002003557923784066</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.007759443775574365</v>
+        <v>0.003075249466034929</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.004608089716573755</v>
+        <v>0.004003743138355868</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.001893137132255202</v>
+        <v>0.007285324089451331</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.002837403891928315</v>
+        <v>0.002918623851407058</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.003187311059162035</v>
+        <v>0.005961046165701056</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.00106127854041339</v>
+        <v>0.01027544353708784</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.0007111992994245734</v>
+        <v>0.001998066729249576</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.002403098282222752</v>
+        <v>0.003787454163811802</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.002155586821123478</v>
+        <v>0.001796198076786304</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.003326417224219869</v>
+        <v>0.0040893839927899</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.00414518992956509</v>
+        <v>0.006620217504377182</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.0005081501146006078</v>
+        <v>0.0007900773816564153</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.002330629710537835</v>
+        <v>0.003862148113619262</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.001228240947977947</v>
-      </c>
-      <c r="V16" s="5" t="n">
-        <v>0.002542385936329242</v>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>[0.0018, 0.0033]</t>
+        <v>0.00223287967931639</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0.001780723256551347</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0.004470693719221113</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0.002379658696758932</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0.00234600559612355</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0.004732850707938837</v>
+      </c>
+      <c r="AA16" s="5" t="n">
+        <v>0.003937412040763796</v>
+      </c>
+      <c r="AB16" s="5" t="inlineStr">
+        <is>
+          <t>[0.003, 0.0049]</t>
         </is>
       </c>
     </row>
@@ -1797,10 +2052,25 @@
       <c r="U17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -1872,10 +2142,25 @@
       <c r="U18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -1888,71 +2173,86 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>4.142020903593742</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4.12856402698521</v>
+        <v>0.042024707082513</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>19.56229984323386</v>
+        <v>0.02757875744927626</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>7.374880315001954</v>
+        <v>0.3152827534070823</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.886149783769131</v>
+        <v>0.04983009739398463</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>19.21720461086993</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>20.46238891012906</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>10.50366514508653</v>
+        <v>0.0008488662499158768</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>4.42397070772198</v>
+        <v>0.004580386421471635</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>35.20106816593026</v>
+        <v>0.08577138811595325</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.926683466569785</v>
+        <v>0.1312164815285725</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.75569664743082</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.415711902475177</v>
+        <v>0.06111990111390529</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3.819273379008941</v>
+        <v>0.02923659319414098</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.636890579348167</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.214750208498308</v>
+        <v>0.003969568057136523</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>2.894772039550217</v>
+        <v>0.04466439102878855</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>16.17155206001679</v>
+        <v>0.001903837566628871</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>4.159440008284347</v>
+        <v>0.281457309753908</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>24.70168358553608</v>
-      </c>
-      <c r="V19" s="5" t="n">
-        <v>10.37993331445201</v>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
-        <is>
-          <t>[6.1016, 14.6582]</t>
+        <v>0.7906311259025756</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0.1245494575213194</v>
+      </c>
+      <c r="W19" s="2" t="n">
+        <v>0.003473894335567351</v>
+      </c>
+      <c r="X19" s="2" t="n">
+        <v>0.04696769336019635</v>
+      </c>
+      <c r="Y19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2" t="n">
+        <v>0.1386231984344522</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>0.08734921631669555</v>
+      </c>
+      <c r="AB19" s="5" t="inlineStr">
+        <is>
+          <t>[0.0176, 0.1571]</t>
         </is>
       </c>
     </row>
@@ -1966,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
+        <v>0.007206166294147486</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1975,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>0.00225951348699043</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>0</v>
@@ -1996,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0</v>
+        <v>0.0185433144610508</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>0</v>
@@ -2022,12 +2322,27 @@
       <c r="U20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0]</t>
+      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>0.001120359769687549</v>
+      </c>
+      <c r="AB20" s="5" t="inlineStr">
+        <is>
+          <t>[-0.0005, 0.0027]</t>
         </is>
       </c>
     </row>
@@ -2038,71 +2353,86 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.008852123770632719</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>0.04290605050054346</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.001331550108741592</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.01267919196101575</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.002390303250156557</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01274876011866327</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05862487313864476</v>
+        <v>0.01039555026829693</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03489674217092386</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.3613924991886192</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.06046537807243223</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.1070705498989041</v>
+        <v>0.05936381037615885</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.005103884591101367</v>
+        <v>0.08268340290608478</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0.1248227406436798</v>
+        <v>0.006105679032508368</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.5399776509905037</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.02345780940954288</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>0.3468687888135957</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.008932862941414123</v>
+        <v>0.02806417786081504</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.04074800297703961</v>
+        <v>0.007223372018258169</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0007256163725060895</v>
-      </c>
-      <c r="V21" s="5" t="n">
-        <v>0.07021102698022606</v>
-      </c>
-      <c r="W21" s="5" t="inlineStr">
-        <is>
-          <t>[0.0056, 0.1348]</t>
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>0.05008040886748676</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>0.003960654772517813</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>0.02550607581665064</v>
+      </c>
+      <c r="AB21" s="5" t="inlineStr">
+        <is>
+          <t>[-0.0037, 0.0547]</t>
         </is>
       </c>
     </row>
@@ -2172,10 +2502,25 @@
       <c r="U22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -2188,71 +2533,86 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>146.5472139065475</v>
+        <v>0.6921380358070477</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>162.9532804785332</v>
+        <v>0.03600922369324702</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>155.7735704701972</v>
+        <v>0.5547004507489929</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>148.4014066936894</v>
+        <v>0.1967246029323846</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>169.4702331288168</v>
+        <v>0.1559005812158099</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>170.9506515759026</v>
+        <v>0.1201752420692366</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>148.1583344466553</v>
+        <v>0.2175189608790555</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>158.6830899482599</v>
+        <v>0.1814044642772423</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>164.3281911927125</v>
+        <v>0.2171214441302398</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>165.954031572653</v>
+        <v>0.3719169203380895</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>154.6824853508754</v>
+        <v>0.3197054523805443</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>160.0757146830294</v>
+        <v>0.02649105682650878</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>159.5861240946776</v>
+        <v>0.2824925349104693</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>154.3128097297802</v>
+        <v>0.08404340920742219</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>167.6751231062241</v>
+        <v>0.2337997348240433</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>167.9028302281166</v>
+        <v>0.06854886948895199</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>143.9317683769687</v>
+        <v>0.5029536498315297</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>163.9725551557908</v>
+        <v>0.1986820989859052</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>162.8082309365723</v>
+        <v>0.09325228088022232</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>154.9703144583219</v>
-      </c>
-      <c r="V23" s="5" t="n">
-        <v>159.0568979767162</v>
-      </c>
-      <c r="W23" s="5" t="inlineStr">
-        <is>
-          <t>[155.3076, 162.8062]</t>
+        <v>0.3042573919721562</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0.3440940576486649</v>
+      </c>
+      <c r="W23" s="2" t="n">
+        <v>0.3399371007886325</v>
+      </c>
+      <c r="X23" s="2" t="n">
+        <v>0.03063621432343655</v>
+      </c>
+      <c r="Y23" s="2" t="n">
+        <v>0.04214672519483138</v>
+      </c>
+      <c r="Z23" s="2" t="n">
+        <v>0.08101025919873929</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>0.2278264305021361</v>
+      </c>
+      <c r="AB23" s="5" t="inlineStr">
+        <is>
+          <t>[0.1563, 0.2993]</t>
         </is>
       </c>
     </row>
@@ -2263,71 +2623,86 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.002248721123574948</v>
+        <v>0.006400563657560275</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.000624454689259404</v>
+        <v>0.003045088894083125</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.000187273991342703</v>
+        <v>0.005547493034486963</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.001822219479257953</v>
+        <v>0.004117452357767874</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.002822214167055833</v>
+        <v>0.007353544300156335</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.00296655798402559</v>
+        <v>0.003209962229914834</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.004885800299789293</v>
+        <v>0.005709471205488194</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.004130966873416171</v>
+        <v>0.004776007775311021</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.002763857710151522</v>
+        <v>0.004216639824722003</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.00124673968544649</v>
+        <v>0.0009995568484794037</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.004151519381294937</v>
+        <v>0.0078941257428048</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.0008406253170307233</v>
+        <v>0.003295668137322577</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.00175919638118915</v>
+        <v>0.003301633680966718</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0.003549765050605136</v>
+        <v>0.003109983627571738</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.003370831433321811</v>
+        <v>0.006151329399023069</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.003652345620519367</v>
+        <v>0.00468122418931474</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.002657473206666746</v>
+        <v>0.005303885298497831</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.002582967526417389</v>
+        <v>0.002041784587807278</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.001546264592259524</v>
+        <v>0.006861287353127418</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.001330381583023873</v>
-      </c>
-      <c r="V24" s="5" t="n">
-        <v>0.002457008804782428</v>
-      </c>
-      <c r="W24" s="5" t="inlineStr">
-        <is>
-          <t>[0.0019, 0.0031]</t>
+        <v>0.00523004425024424</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0.002994465856497303</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0.003111775044232719</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0.002711057038896344</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>0.007498206147475198</v>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>0.007244075295421138</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>0.004672253031086925</v>
+      </c>
+      <c r="AB24" s="5" t="inlineStr">
+        <is>
+          <t>[0.0039, 0.0055]</t>
         </is>
       </c>
     </row>
@@ -2338,71 +2713,86 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.008124670615454532</v>
+        <v>0.02075118163666781</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.009560707397649937</v>
+        <v>0.00944332548683322</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.01073824832365926</v>
+        <v>0.008030051496976012</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.004582297053254605</v>
+        <v>0.01051477794956239</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.003584638231802121</v>
+        <v>0.01806441451116945</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.003268666902154223</v>
+        <v>0.006740942547310874</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.02280326334046344</v>
+        <v>0.01020359269836474</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.0149451558375365</v>
+        <v>0.0120112294150676</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005875253169067869</v>
+        <v>0.0211509409048587</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.008270974907645291</v>
+        <v>0.01077645729750298</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.01038399983075414</v>
+        <v>0.01818624253942695</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.003396091329322846</v>
+        <v>0.03007446888903759</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0.002338189477560241</v>
+        <v>0.00715725395552087</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0.007622161952424589</v>
+        <v>0.01217395981225222</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.007320860901928791</v>
+        <v>0.006100295355123297</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.01032336379930304</v>
+        <v>0.01356846301755174</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.01514993273749678</v>
+        <v>0.02196569863203489</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0.001537260850892595</v>
+        <v>0.002517060684923093</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>0.007593001771887969</v>
+        <v>0.01188353265729004</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.004334968051686872</v>
-      </c>
-      <c r="V25" s="5" t="n">
-        <v>0.008087685324097279</v>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>[0.0057, 0.0105]</t>
+        <v>0.006231292128324808</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>0.006541432371004948</v>
+      </c>
+      <c r="W25" s="2" t="n">
+        <v>0.01449954719747388</v>
+      </c>
+      <c r="X25" s="2" t="n">
+        <v>0.007895641758831482</v>
+      </c>
+      <c r="Y25" s="2" t="n">
+        <v>0.008320808025659881</v>
+      </c>
+      <c r="Z25" s="2" t="n">
+        <v>0.01396578897424575</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>0.01235073599772061</v>
+      </c>
+      <c r="AB25" s="5" t="inlineStr">
+        <is>
+          <t>[0.0097, 0.015]</t>
         </is>
       </c>
     </row>
@@ -2472,10 +2862,25 @@
       <c r="U26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
+      <c r="V26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -2547,10 +2952,25 @@
       <c r="U27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
+      <c r="V27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -2563,71 +2983,86 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>5.083557484899763</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>5.185732744744405</v>
+        <v>0.0380122978635796</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>24.09729201665303</v>
+        <v>0.01925255101631074</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>8.6350649429355</v>
+        <v>0.2728408442945905</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>11.65595937140446</v>
+        <v>0.03882864731998802</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>21.85508166971818</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>25.79031439865335</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>13.49297912279791</v>
+        <v>0.0007354797833206153</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>5.691972631661218</v>
+        <v>0.003726416071705737</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>43.71409915954148</v>
+        <v>0.07586658408290706</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.731465045828311</v>
+        <v>0.1097280681772035</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.800816491214627</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>10.54568631921672</v>
+        <v>0.05276538225660888</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>4.801636801969182</v>
+        <v>0.02485283010599941</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.123533724559781</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>6.303758070008095</v>
+        <v>0.003455972190010032</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.880450920996595</v>
+        <v>0.03662683546779926</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>19.87152337137528</v>
+        <v>0.001618374318740008</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>5.359749577977017</v>
+        <v>0.2421138148420714</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>31.93198549078387</v>
-      </c>
-      <c r="V28" s="5" t="n">
-        <v>12.92763296784694</v>
-      </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>[7.6203, 18.2349]</t>
+        <v>0.6346203017278199</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0.1120945117691875</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>0.002797767250121357</v>
+      </c>
+      <c r="X28" s="2" t="n">
+        <v>0.04001980972703121</v>
+      </c>
+      <c r="Y28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>0.1134189805372791</v>
+      </c>
+      <c r="AA28" s="5" t="n">
+        <v>0.07293501875209095</v>
+      </c>
+      <c r="AB28" s="5" t="inlineStr">
+        <is>
+          <t>[0.0161, 0.1298]</t>
         </is>
       </c>
     </row>
@@ -2641,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0</v>
+        <v>0.06738233417904142</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -2650,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0</v>
+        <v>0.01869942196130011</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>0</v>
@@ -2671,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0</v>
+        <v>0.1628193464872753</v>
       </c>
       <c r="N29" s="2" t="n">
         <v>0</v>
@@ -2697,12 +3132,27 @@
       <c r="U29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0]</t>
+      <c r="V29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="5" t="n">
+        <v>0.009956044105104674</v>
+      </c>
+      <c r="AB29" s="5" t="inlineStr">
+        <is>
+          <t>[-0.0044, 0.0243]</t>
         </is>
       </c>
     </row>
@@ -2713,71 +3163,86 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.09512730022172473</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>0.2887136108447784</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.01474947812759917</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.1863064941210477</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.03019330421250388</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.1731907034988218</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.7964133709400797</v>
+        <v>0.01950088526825766</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.4052524897268577</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>4.486251714065618</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.8214164568330417</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>1.32915165391743</v>
+        <v>0.4696916864926854</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.08749516441888058</v>
+        <v>0.5953205009238104</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1.695705155914141</v>
+        <v>0.05784327504481611</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.589557774799367</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0.3311690740170759</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0</v>
+        <v>2.249959711223324</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0.1312583942411871</v>
+        <v>0.2405500959498432</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.5239028954190807</v>
+        <v>0.04906441370892341</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01374852074222064</v>
-      </c>
-      <c r="V30" s="5" t="n">
-        <v>0.885544497260834</v>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>[0.0932, 1.6779]</t>
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>0.4051448807257356</v>
+      </c>
+      <c r="X30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="n">
+        <v>0.04132857153931631</v>
+      </c>
+      <c r="Z30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="5" t="n">
+        <v>0.1766847052688596</v>
+      </c>
+      <c r="AB30" s="5" t="inlineStr">
+        <is>
+          <t>[-0.0149, 0.3683]</t>
         </is>
       </c>
     </row>
@@ -2788,71 +3253,86 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>312.2503500302864</v>
+        <v>7.598041962540918</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>341.9728715719038</v>
+        <v>1.986929807193405</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>317.090631788405</v>
+        <v>7.48338067793361</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>313.8290140816491</v>
+        <v>5.24976158681261</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>331.5356995204015</v>
+        <v>7.453050601624057</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>339.5559405853937</v>
+        <v>3.729726867713339</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>305.3777373168959</v>
+        <v>8.883601579742674</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>325.8584812957974</v>
+        <v>7.429263210424701</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>355.4137564486293</v>
+        <v>5.417223857984823</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>319.6033243777455</v>
+        <v>7.633638135479913</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>320.8114250342965</v>
+        <v>7.481449960710577</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>330.4180955213773</v>
+        <v>2.927351222922255</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>318.2100252931531</v>
+        <v>6.129083853920179</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>316.3240867263435</v>
+        <v>5.619037903466904</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>334.6325352437677</v>
+        <v>6.302009785254654</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>332.6059186408394</v>
+        <v>2.463764695669852</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>280.611932509488</v>
+        <v>5.865762015754967</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>333.2644688399681</v>
+        <v>6.300430248842986</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>335.2868490999431</v>
+        <v>3.464786513965066</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>307.4124093938751</v>
-      </c>
-      <c r="V31" s="5" t="n">
-        <v>323.603277666008</v>
-      </c>
-      <c r="W31" s="5" t="inlineStr">
-        <is>
-          <t>[316.0369, 331.1697]</t>
+        <v>6.097389884966496</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>9.219668696768338</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>5.772203356019958</v>
+      </c>
+      <c r="X31" s="2" t="n">
+        <v>2.807905496504816</v>
+      </c>
+      <c r="Y31" s="2" t="n">
+        <v>3.693098718185979</v>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>3.682355789259248</v>
+      </c>
+      <c r="AA31" s="5" t="n">
+        <v>5.627636657186493</v>
+      </c>
+      <c r="AB31" s="5" t="inlineStr">
+        <is>
+          <t>[4.7816, 6.4737]</t>
         </is>
       </c>
     </row>
@@ -2922,10 +3402,25 @@
       <c r="U32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
+      <c r="V32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -2938,71 +3433,86 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.7470618068372232</v>
+        <v>0.6274797346136722</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.1827378612916846</v>
+        <v>0.4719439381223083</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.04474949672970752</v>
+        <v>0.4451928809388832</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.231472926877359</v>
+        <v>0.4183362840655036</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.3254718853904706</v>
+        <v>0.9244861598244825</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.1885426906803787</v>
+        <v>0.3997206178265138</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.847324703323352</v>
+        <v>0.8725583259440697</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.4537057520254848</v>
+        <v>0.4575394637474801</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.3568139285860639</v>
+        <v>0.3074120779378973</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.2211716650196536</v>
+        <v>0.4364772365516956</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.6106654089877566</v>
+        <v>0.9063132700931078</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.2385399795475678</v>
+        <v>0.3330955721528994</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.3449601495580907</v>
+        <v>0.5715940233907304</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0.3553335055623847</v>
+        <v>0.4396374999388577</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.3744108261282122</v>
+        <v>0.6909660293618476</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.4666063484768301</v>
+        <v>0.3550203707988615</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.2820894150170545</v>
+        <v>0.4158523959982858</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0.3419462743698318</v>
+        <v>0.2454331143136983</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0.2654981880299463</v>
+        <v>0.7291623173509834</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.329308649739346</v>
-      </c>
-      <c r="V33" s="5" t="n">
-        <v>0.36042057310892</v>
-      </c>
-      <c r="W33" s="5" t="inlineStr">
-        <is>
-          <t>[0.2707, 0.4502]</t>
+        <v>0.5179513092959382</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>0.3468266402578593</v>
+      </c>
+      <c r="W33" s="2" t="n">
+        <v>0.4653294968541104</v>
+      </c>
+      <c r="X33" s="2" t="n">
+        <v>0.3022319766332089</v>
+      </c>
+      <c r="Y33" s="2" t="n">
+        <v>0.7426740757964581</v>
+      </c>
+      <c r="Z33" s="2" t="n">
+        <v>0.5421073414138391</v>
+      </c>
+      <c r="AA33" s="5" t="n">
+        <v>0.5186136861289277</v>
+      </c>
+      <c r="AB33" s="5" t="inlineStr">
+        <is>
+          <t>[0.4388, 0.5985]</t>
         </is>
       </c>
     </row>
@@ -3013,71 +3523,86 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.4648860982067617</v>
+        <v>0.4789266124713549</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.6259491590514585</v>
+        <v>0.3296173931730095</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3830903613633154</v>
+        <v>0.3818076873749305</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.3152729274125932</v>
+        <v>0.5092785825800092</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.3120188462559099</v>
+        <v>0.5218596214952527</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.2798768749321532</v>
+        <v>0.3278995666702258</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.6269699347478763</v>
+        <v>0.3471180735755865</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.4974499016631171</v>
+        <v>0.3941800801646309</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.3130779033193676</v>
+        <v>0.5181540372360018</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.3297255374396855</v>
+        <v>0.488963526852487</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.5090559477666829</v>
+        <v>0.969086641659743</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.2887159185050905</v>
+        <v>0.7613794237428806</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0.3211180628761667</v>
+        <v>0.3393912360797344</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0.4313390680369065</v>
+        <v>0.399570890221888</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0.3292604295875776</v>
+        <v>0.2057132339561463</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.4901538554999547</v>
+        <v>0.5282064771921569</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.7722203152890064</v>
+        <v>0.8443950668087723</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0.249873247779135</v>
+        <v>0.1510841924278452</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>0.4922210204927069</v>
+        <v>0.4975030609439841</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.3355734439164166</v>
-      </c>
-      <c r="V34" s="5" t="n">
-        <v>0.4183924427070941</v>
-      </c>
-      <c r="W34" s="5" t="inlineStr">
-        <is>
-          <t>[0.3531, 0.4837]</t>
+        <v>0.2339437141243934</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0.3938466077337353</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>0.4687904475330242</v>
+      </c>
+      <c r="X34" s="2" t="n">
+        <v>0.3205912662010633</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>0.2786198607566348</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>0.5024508870977797</v>
+      </c>
+      <c r="AA34" s="5" t="n">
+        <v>0.4476951275229308</v>
+      </c>
+      <c r="AB34" s="5" t="inlineStr">
+        <is>
+          <t>[0.3697, 0.5257]</t>
         </is>
       </c>
     </row>
@@ -3147,10 +3672,25 @@
       <c r="U35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5" t="inlineStr">
+      <c r="V35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -3222,10 +3762,25 @@
       <c r="U36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="5" t="inlineStr">
+      <c r="V36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -3238,71 +3793,86 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>34.54367929855778</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>34.01240616237919</v>
+        <v>3.170491755778016</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>68.42105912217562</v>
+        <v>2.008270940790908</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>42.63426405829102</v>
+        <v>5.538513934509126</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44.42894072658459</v>
+        <v>2.303569037511522</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>67.15732009014664</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>56.90467923081508</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>51.69130161350154</v>
+        <v>0.4338745350788713</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>25.14668839331233</v>
+        <v>1.176596338527986</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>92.52789382982462</v>
+        <v>4.278048057327339</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>21.7122927835793</v>
+        <v>7.65454788149529</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>26.6113982252316</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>42.2407793511336</v>
+        <v>4.392394348728317</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>30.74675189580546</v>
+        <v>3.684972918595378</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>16.30757694337393</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>23.02427091366582</v>
+        <v>0.9784347174614823</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>20.88094718234322</v>
+        <v>2.604546502739765</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>55.32030351093294</v>
+        <v>1.164549261010279</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>25.57852968728537</v>
+        <v>7.292755448569096</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>91.50788616093064</v>
-      </c>
-      <c r="V37" s="5" t="n">
-        <v>43.56994845899352</v>
-      </c>
-      <c r="W37" s="5" t="inlineStr">
-        <is>
-          <t>[32.9953, 54.1446]</t>
+        <v>9.380340262613117</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>6.750565173282155</v>
+      </c>
+      <c r="W37" s="2" t="n">
+        <v>1.256332115154009</v>
+      </c>
+      <c r="X37" s="2" t="n">
+        <v>4.064641936588885</v>
+      </c>
+      <c r="Y37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2" t="n">
+        <v>4.637884761225337</v>
+      </c>
+      <c r="AA37" s="5" t="n">
+        <v>2.910853197079475</v>
+      </c>
+      <c r="AB37" s="5" t="inlineStr">
+        <is>
+          <t>[1.7647, 4.057]</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0</v>
+        <v>1.946571469035462</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0</v>
@@ -3325,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0</v>
+        <v>1.62684971063311</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>0</v>
@@ -3346,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0</v>
+        <v>6.747350654395746</v>
       </c>
       <c r="N38" s="2" t="n">
         <v>0</v>
@@ -3372,12 +3942,27 @@
       <c r="U38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="5" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0]</t>
+      <c r="V38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="5" t="n">
+        <v>0.4128308733625727</v>
+      </c>
+      <c r="AB38" s="5" t="inlineStr">
+        <is>
+          <t>[-0.1691, 0.9948]</t>
         </is>
       </c>
     </row>
@@ -3388,71 +3973,86 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>4.151666206045206</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0</v>
+        <v>12.12255400992706</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.6449592449582155</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>8.758142323842321</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.721018340112721</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>9.179107285437553</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>14.03849149797816</v>
+        <v>1.737539124305954</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>6.874211284297573</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>38.04664687469415</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>8.37240149787462</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>19.58039351017447</v>
+        <v>8.929906963748635</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>3.674796905592984</v>
+        <v>16.01172422789352</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>21.14559245669756</v>
+        <v>2.545410295033221</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>51.50881803091318</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>16.88962277487087</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>24.89976084789248</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>3.292177483290175</v>
+        <v>12.91534092710788</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>11.36040464586995</v>
+        <v>2.67418726580695</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.5224437882043844</v>
-      </c>
-      <c r="V39" s="5" t="n">
-        <v>10.9880447075427</v>
-      </c>
-      <c r="W39" s="5" t="inlineStr">
-        <is>
-          <t>[4.6802, 17.2959]</t>
+        <v>0</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2" t="n">
+        <v>12.65955019623658</v>
+      </c>
+      <c r="X39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="n">
+        <v>2.851671436212825</v>
+      </c>
+      <c r="Z39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="5" t="n">
+        <v>3.893905811766604</v>
+      </c>
+      <c r="AB39" s="5" t="inlineStr">
+        <is>
+          <t>[1.1302, 6.6576]</t>
         </is>
       </c>
     </row>
@@ -3463,71 +4063,86 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>315</v>
+        <v>4</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>325</v>
+        <v>5</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>303</v>
+        <v>7</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>346</v>
+        <v>7</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>292</v>
+        <v>8</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>294</v>
+        <v>2</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>281</v>
+        <v>7</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>264</v>
+        <v>9</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>334</v>
+        <v>6</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="V40" s="5" t="n">
-        <v>300.6</v>
-      </c>
-      <c r="W40" s="5" t="inlineStr">
-        <is>
-          <t>[291.0611, 310.1389]</t>
+        <v>7</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="W40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="5" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB40" s="5" t="inlineStr">
+        <is>
+          <t>[5.4283, 7.4517]</t>
         </is>
       </c>
     </row>
@@ -3597,10 +4212,25 @@
       <c r="U41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5" t="inlineStr">
+      <c r="V41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -3613,28 +4243,28 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="F42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="H42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="I42" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
         <v>2</v>
@@ -3649,35 +4279,50 @@
         <v>1</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V42" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W42" s="5" t="inlineStr">
-        <is>
-          <t>[1.08, 1.52]</t>
+        <v>2</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA42" s="5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AB42" s="5" t="inlineStr">
+        <is>
+          <t>[1.6841, 2.1559]</t>
         </is>
       </c>
     </row>
@@ -3688,43 +4333,43 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="D43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E43" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="F43" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>2</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="L43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>1</v>
       </c>
       <c r="O43" s="2" t="n">
         <v>3</v>
@@ -3745,14 +4390,29 @@
         <v>2</v>
       </c>
       <c r="U43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="V43" s="5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W43" s="5" t="inlineStr">
-        <is>
-          <t>[1.6844, 2.8156]</t>
+      <c r="Y43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AB43" s="5" t="inlineStr">
+        <is>
+          <t>[2.0973, 3.0227]</t>
         </is>
       </c>
     </row>
@@ -3822,10 +4482,25 @@
       <c r="U44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="5" t="inlineStr">
+      <c r="V44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -3897,10 +4572,25 @@
       <c r="U45" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="5" t="inlineStr">
+      <c r="V45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5" t="inlineStr">
         <is>
           <t>[0.0, 0.0]</t>
         </is>
@@ -3913,71 +4603,86 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="R46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="U46" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="S46" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="T46" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="U46" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="V46" s="5" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="W46" s="5" t="inlineStr">
-        <is>
-          <t>[26.7446, 45.8554]</t>
+      <c r="V46" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="5" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB46" s="5" t="inlineStr">
+        <is>
+          <t>[2.9496, 6.7304]</t>
         </is>
       </c>
     </row>
@@ -3991,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0</v>
@@ -4000,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>0</v>
@@ -4021,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="2" t="n">
         <v>0</v>
@@ -4047,12 +4752,27 @@
       <c r="U47" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="5" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0]</t>
+      <c r="V47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB47" s="5" t="inlineStr">
+        <is>
+          <t>[-0.0351, 0.3551]</t>
         </is>
       </c>
     </row>
@@ -4063,71 +4783,356 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="J48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O48" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="P48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="S48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T48" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="U48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="V48" s="5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W48" s="5" t="inlineStr">
-        <is>
-          <t>[1.1334, 2.5666]</t>
+      <c r="Z48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB48" s="5" t="inlineStr">
+        <is>
+          <t>[0.3963, 1.7637]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Lq_Preoperative_Warm_Period</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Wq_Preoperative_Warm_Period</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Finished_Patients</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
